--- a/data/hotels_by_city/Houston/Houston_shard_559.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_559.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d596569-Reviews-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Rodeway-Inn-Suites-Humble.h1385429.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r485776019-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>596569</t>
+  </si>
+  <si>
+    <t>485776019</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Great price</t>
+  </si>
+  <si>
+    <t>Needed a place on our way to South Padre Island. Room was nice but needs some updating. The tub was very slippery. I liked the exterior entrance so no lugging stuff too far. Pool is close to the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>jyodi p, Manager at Rodeway Inn Humble, responded to this reviewResponded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Needed a place on our way to South Padre Island. Room was nice but needs some updating. The tub was very slippery. I liked the exterior entrance so no lugging stuff too far. Pool is close to the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r439996855-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>439996855</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Saturday night stay</t>
+  </si>
+  <si>
+    <t>Friendly guy checked us in and out.  Clean, roomy, nice bed and appliances.  Good wifi.  Heard a 10 second confrontation near our room in the middle of the night, but that was it.  10 minutes from the airport, which was our main attraction.  Fantastic price!  Will book again.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r409745506-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>409745506</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>First night stay in US.</t>
+  </si>
+  <si>
+    <t>Compared and looked at reviews and we decided to stay here on the way to Austin.Booked in late night. The lady was friendly and after showing her the price on TA it was matched.No noise from road. WIFI ok.Room clean.Breakfast was filling and the fresh fruit was nice and went down good.Did not swim.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>jyodi p, Manager at Rodeway Inn Humble, responded to this reviewResponded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Compared and looked at reviews and we decided to stay here on the way to Austin.Booked in late night. The lady was friendly and after showing her the price on TA it was matched.No noise from road. WIFI ok.Room clean.Breakfast was filling and the fresh fruit was nice and went down good.Did not swim.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r348299496-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>348299496</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Just fine!</t>
+  </si>
+  <si>
+    <t>I spent one night here and had a clean and quiet room,slept well and enjoyed a nice continental breakfast in the morning.Everything in the room worked well,including the flat screen television with excellent cable.I enjoyed my experience here at the Rodeway Inn.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r320620727-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>320620727</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrived late after a flight and we were greeted by a friendly staff member who was quick to book is in. Room clean, newly renovated and exceeded expectations for cost. Wifi worked fine and pool looked very nice just wish I had a chance to use it.  Would stay again for sure </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r312048659-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>312048659</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Nice, attractive, quiet hotel</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here.  The staff were friendly, helpful and welcoming, and I have no complaints.  The hotel also is attractive and well maintained inside and out.  There is a huge variety of restaurants minutes away (from fast food to nice eateries), and when traffic is flowing (i.e., non-rush-hour) it is only about 20 min. south on US 59 to be downtown.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r281181484-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>281181484</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Great inn.</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and will in the future.Always well maintained and clean motel.Very good location.  I have stayed 2 night weekends and full business weeks here before.Excellent wi-fi too..MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>jyodi p, Manager at Rodeway Inn Humble, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and will in the future.Always well maintained and clean motel.Very good location.  I have stayed 2 night weekends and full business weeks here before.Excellent wi-fi too..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r271830836-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>271830836</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Terrible breakfast, dirty room, no free shuttle from/to IAH</t>
+  </si>
+  <si>
+    <t>I was looking for a reasonably cheap Hotel around IAH for one night layover in Houston. As usual, trying to get things done on the cheap inevitably ends up being the most expensive option. An taxi from IAH to the Hotel costs nearly 20USD, one way.The breakfast was also terrible. I don't know what exactly is considered a "Continental Breakfast" but it is nothing similar to the Hotels I usually stay at. The room was also dirty, and therefore there was not much good about the Hotel other than the location, which is close by the Houston Airport and Deerbrook Mall.I paid 90 dollars on the Hotel, plus 40 dollars return taxi to the airport, plus 15 dollars for breakfast at IAH. For the same 145USD I could have booked an better Hotel, with free shuttle and better breakfast. Lesson learned.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I was looking for a reasonably cheap Hotel around IAH for one night layover in Houston. As usual, trying to get things done on the cheap inevitably ends up being the most expensive option. An taxi from IAH to the Hotel costs nearly 20USD, one way.The breakfast was also terrible. I don't know what exactly is considered a "Continental Breakfast" but it is nothing similar to the Hotels I usually stay at. The room was also dirty, and therefore there was not much good about the Hotel other than the location, which is close by the Houston Airport and Deerbrook Mall.I paid 90 dollars on the Hotel, plus 40 dollars return taxi to the airport, plus 15 dollars for breakfast at IAH. For the same 145USD I could have booked an better Hotel, with free shuttle and better breakfast. Lesson learned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r256462132-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>256462132</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Scratchy sheets</t>
+  </si>
+  <si>
+    <t>Was forced to stay at this hotel after showing up at the Days Inn down the road only to find out they had inexplicably cancelled our reservation and given our room away. This is definitely a 2 star motel. Our room smelled strongly of smoke despite requesting a non-smoking room. The sheets were scratchy, towels had holes and alarm clock did not work. We only needed a place to sleep for 5 hours during our layover so it was fine and clean enough, but I would not stay here again.  The walls were very thin and I could not sleep due to being constantly woken by the couple in the room next to us having intercourse.Also, this motel does not have an airport shuttle and there is nothing around except a gas station across the street. The only good thing was they had free WiFi (look for the password on the pizza delivery card)MoreShow less</t>
+  </si>
+  <si>
+    <t>Was forced to stay at this hotel after showing up at the Days Inn down the road only to find out they had inexplicably cancelled our reservation and given our room away. This is definitely a 2 star motel. Our room smelled strongly of smoke despite requesting a non-smoking room. The sheets were scratchy, towels had holes and alarm clock did not work. We only needed a place to sleep for 5 hours during our layover so it was fine and clean enough, but I would not stay here again.  The walls were very thin and I could not sleep due to being constantly woken by the couple in the room next to us having intercourse.Also, this motel does not have an airport shuttle and there is nothing around except a gas station across the street. The only good thing was they had free WiFi (look for the password on the pizza delivery card)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r184739400-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>184739400</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Short weekend family visit</t>
+  </si>
+  <si>
+    <t>When I arrived  the first thing I noticed was a pungent odor in the office. I couldn't hardly stand the smell.I was told they were full and didn't have a room on the first floor (I'm handicapped) and they will move me the next day. The parking wasn't half full and I checked in at 9 PM. It took two days to get to the first floor.The hotel was dated in need of a remodel.I  wouldn't stay at this location again. I don't recommend this motel.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r177645932-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>177645932</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Nothing fancy</t>
+  </si>
+  <si>
+    <t>We were in Humble working. Had 2 rooms. They were nothing fancy but they were clean and comfortable for the price. Some of the guests use the place for a all night party house, so it can be a little noisy at night.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r158518367-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>158518367</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Just fine for a week stay.</t>
+  </si>
+  <si>
+    <t>Had a "suite" which was just a double turned into a suite.  For the money this way a good place to stay during the 2011 Senior Games.  The track and field events where being held at the new track there.The manager was great.  We found food still in the refrigerator and he had someone over right away to take care of it.  Other than that, we found the rooms to be clean and the bed as comfortable as you can get in a hotel.Did have some trouble with noisy children running up and down the balcony, but that too was taken care of almost immediately.The pool was small and I was the only one to use it during our stay.  The continental breakfast was fine.  Our diets require protein so we just scrambled some eggs in our microwave to go with fruit and cereal provided by the hotel.The hotel is in an excellent location for shops and gas stations.  There is a mall close by also.All in all I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Had a "suite" which was just a double turned into a suite.  For the money this way a good place to stay during the 2011 Senior Games.  The track and field events where being held at the new track there.The manager was great.  We found food still in the refrigerator and he had someone over right away to take care of it.  Other than that, we found the rooms to be clean and the bed as comfortable as you can get in a hotel.Did have some trouble with noisy children running up and down the balcony, but that too was taken care of almost immediately.The pool was small and I was the only one to use it during our stay.  The continental breakfast was fine.  Our diets require protein so we just scrambled some eggs in our microwave to go with fruit and cereal provided by the hotel.The hotel is in an excellent location for shops and gas stations.  There is a mall close by also.All in all I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r144502294-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>144502294</t>
+  </si>
+  <si>
+    <t>11/04/2012</t>
+  </si>
+  <si>
+    <t>Great deal for the money</t>
+  </si>
+  <si>
+    <t>My spouse and I spent a night here, back in October, hot tub room. It was a great deal it isn't real fancy, but overall clean and just right for a short stay. We did have breakfast included but we did not get up in time. The beds were comfortable, the only thing that keeps it from being a 5 is that the non-smoking room had the odor of old smoke. NOTE to hotels, if you change a room to non-smoking, you have to change everything, carpet, paint, bedding, everything to get out the odor.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r27832198-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>27832198</t>
+  </si>
+  <si>
+    <t>04/11/2009</t>
+  </si>
+  <si>
+    <t>Hair ball in the shower! YUCK!</t>
+  </si>
+  <si>
+    <t>I got there only to find out that they did not have my reservation.  I ended up having to pay more money for the room than I had originally booked it for.  I guess it is my fault for not bringing the confirmation number with me. I usually do, but the one time I needed it, I forgot it.  Then we got to the room and sitting in the shower was a gigantic hair ball! It was about the size of a golf ball!  I was disgusted. The hotel was also very noisy. We were down stairs and  the noise from the people walking around upstairs was very annoying.  We took our business to another hotel to finish our weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>I got there only to find out that they did not have my reservation.  I ended up having to pay more money for the room than I had originally booked it for.  I guess it is my fault for not bringing the confirmation number with me. I usually do, but the one time I needed it, I forgot it.  Then we got to the room and sitting in the shower was a gigantic hair ball! It was about the size of a golf ball!  I was disgusted. The hotel was also very noisy. We were down stairs and  the noise from the people walking around upstairs was very annoying.  We took our business to another hotel to finish our weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r16059525-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>16059525</t>
+  </si>
+  <si>
+    <t>05/15/2008</t>
+  </si>
+  <si>
+    <t>Nice and basic</t>
+  </si>
+  <si>
+    <t>Clean single room with a king sized bed, fridge, and TV with basic cable + HBO and a DVD player.  At $56/night it was the same price as the Motel 6 down nearby and a little bit nicer.  Nothing fancy, but the room was large with a desk and a couch.  Perfect for a business trip,  close to the airport, the mall, and Highway 59.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +871,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +903,1032 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_559.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r575162425-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>596569</t>
+  </si>
+  <si>
+    <t>575162425</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>HORRIBLE ROOM CONDITION</t>
+  </si>
+  <si>
+    <t>I am 74 tears old, traveled the world for business and NEVER stayed in a more filthy, disgusting room.We arrived at 7pm the night of the major ice storm in Houston, January 16th, after a 4 hour drive from Galveston which normally takes a little over an hour.The towels were filthy with black stains although they were probably laundered.The fitted sheet was torn completely on one corner.The sheets and comforter smelled and very wrinkled which told me they were not clean.The tiles in the bathroom were broken and lying on the floor. The pillow covers were also heavily wrinkled and stained.We ended up sleeping in our clothes and my wife did not want to use the shower in the morning.When I complained to the clerk in the morning he said he would report it to Housekeeping.I disputed the charge with AMEX and received the motel's letter stating their policy is that a guest with a complaint needs to give them sufficient time to remedy any problems. They rejected refunding our money.7 pm at night, parking lot so icy we barely made it to the room which was only 200 feet from the office and one clerk on duty. I complained to Choice Hotels and got a refund with a letter saying no room should be in this condition at any time it is offered to guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I am 74 tears old, traveled the world for business and NEVER stayed in a more filthy, disgusting room.We arrived at 7pm the night of the major ice storm in Houston, January 16th, after a 4 hour drive from Galveston which normally takes a little over an hour.The towels were filthy with black stains although they were probably laundered.The fitted sheet was torn completely on one corner.The sheets and comforter smelled and very wrinkled which told me they were not clean.The tiles in the bathroom were broken and lying on the floor. The pillow covers were also heavily wrinkled and stained.We ended up sleeping in our clothes and my wife did not want to use the shower in the morning.When I complained to the clerk in the morning he said he would report it to Housekeeping.I disputed the charge with AMEX and received the motel's letter stating their policy is that a guest with a complaint needs to give them sufficient time to remedy any problems. They rejected refunding our money.7 pm at night, parking lot so icy we barely made it to the room which was only 200 feet from the office and one clerk on duty. I complained to Choice Hotels and got a refund with a letter saying no room should be in this condition at any time it is offered to guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r491562444-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491562444</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Not a bad room!</t>
+  </si>
+  <si>
+    <t>Hotel is older but the room was clean and the beds were good. We found no bedbugs! It was very easy to find the location, and check-in was very smooth, the front desk people were nice and friendly. We feel this hotel was a good value for the money. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>jyodi p, Manager at Rodeway Inn Humble, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is older but the room was clean and the beds were good. We found no bedbugs! It was very easy to find the location, and check-in was very smooth, the front desk people were nice and friendly. We feel this hotel was a good value for the money. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r485776019-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>596569</t>
-  </si>
-  <si>
     <t>485776019</t>
   </si>
   <si>
@@ -207,9 +258,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r409745506-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -237,24 +285,69 @@
     <t>Compared and looked at reviews and we decided to stay here on the way to Austin.Booked in late night. The lady was friendly and after showing her the price on TA it was matched.No noise from road. WIFI ok.Room clean.Breakfast was filling and the fresh fruit was nice and went down good.Did not swim.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r352854810-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>352854810</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>one night stay</t>
+  </si>
+  <si>
+    <t>Location was great for the Humble Civic Center.Room was clean but older. Refrigerator in room.Easy access to highway.Lots of dining choices in the area.Great for one night and in and out access.Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>jyodi p, Manager at Rodeway Inn Humble, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Location was great for the Humble Civic Center.Room was clean but older. Refrigerator in room.Easy access to highway.Lots of dining choices in the area.Great for one night and in and out access.Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r348326164-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>348326164</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Unexpected 2 week stop over in Humble</t>
+  </si>
+  <si>
+    <t>We moved here from another hotel near the airport whilst our son recovered from surgery at the near by hospital. It is within walking distance to the mall, supermarket and many eateries. The staff are friendly, rooms are clean and serviced daily. WiFi was excellent. It was a cheaper option as we were here for one week. More choice at breakfast would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>jyodi p, Owner at Rodeway Inn Humble, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>We moved here from another hotel near the airport whilst our son recovered from surgery at the near by hospital. It is within walking distance to the mall, supermarket and many eateries. The staff are friendly, rooms are clean and serviced daily. WiFi was excellent. It was a cheaper option as we were here for one week. More choice at breakfast would have been nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r348299496-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
     <t>348299496</t>
   </si>
   <si>
-    <t>02/16/2016</t>
-  </si>
-  <si>
     <t>Just fine!</t>
   </si>
   <si>
     <t>I spent one night here and had a clean and quiet room,slept well and enjoyed a nice continental breakfast in the morning.Everything in the room worked well,including the flat screen television with excellent cable.I enjoyed my experience here at the Rodeway Inn.</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -294,6 +387,42 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r286565034-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>286565034</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Cheap as chips but twice as nice</t>
+  </si>
+  <si>
+    <t>Pleasant room and fairly pleasant location. Good staff and excellent value including Continental Breakfast. Will use again. Excellent place to rest your head for a stop over, only disadvantage is the $20 taxi fare to and from the Airport.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r281928647-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>281928647</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>I had reserved a King room. The room was very neat, clean and well decorated. The furniture was well kept and the air conditioning worked great. I was greeted by the friendly owner upon arriving and departing.The hotel is close to a lot of shops and restaurants (walking distance) and very convenient to IAH.Keep in mind that it is along a busy road so you are going to get some traffic noise.I plan on staying here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r281181484-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -363,6 +492,57 @@
     <t>Was forced to stay at this hotel after showing up at the Days Inn down the road only to find out they had inexplicably cancelled our reservation and given our room away. This is definitely a 2 star motel. Our room smelled strongly of smoke despite requesting a non-smoking room. The sheets were scratchy, towels had holes and alarm clock did not work. We only needed a place to sleep for 5 hours during our layover so it was fine and clean enough, but I would not stay here again.  The walls were very thin and I could not sleep due to being constantly woken by the couple in the room next to us having intercourse.Also, this motel does not have an airport shuttle and there is nothing around except a gas station across the street. The only good thing was they had free WiFi (look for the password on the pizza delivery card)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r211122272-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>211122272</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>I tried to get the Days Inn across the road, but it was filled up so I booked here. I experienced the pungent odor in the office area but I think it was from the staff's dinner. The rest of the hotel was un-smelly. Staff - 4.0 (courteous, but only one present at a time. family operation)Location - 5.0 (Excellent location, 5 or 6 min from IAH but set far enough from main highway that it's quiet.)Cleanliness - 3.0 (No smells, room clean, except for soap left on tub from guest before (this seems to happen a lot, regardless of hotel), my room's carpet was clean but had that sticky feeling, maybe needs to be replaced or use an industrial cleaner on it. Furnishings - 3.0 (Typical bland hotel furnishings. Of the 4 pillows in my room, 3 were flatter than flat.) Fridge and microwave, new TV.Price - 5.0 (average hotel, great price, especially for location)All in all, I'd stay there again. It's cheap but not a roach motel. It's comfortable and has an excellent location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>jyodi p, Front Office Manager at Rodeway Inn Humble, responded to this reviewResponded June 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2014</t>
+  </si>
+  <si>
+    <t>I tried to get the Days Inn across the road, but it was filled up so I booked here. I experienced the pungent odor in the office area but I think it was from the staff's dinner. The rest of the hotel was un-smelly. Staff - 4.0 (courteous, but only one present at a time. family operation)Location - 5.0 (Excellent location, 5 or 6 min from IAH but set far enough from main highway that it's quiet.)Cleanliness - 3.0 (No smells, room clean, except for soap left on tub from guest before (this seems to happen a lot, regardless of hotel), my room's carpet was clean but had that sticky feeling, maybe needs to be replaced or use an industrial cleaner on it. Furnishings - 3.0 (Typical bland hotel furnishings. Of the 4 pillows in my room, 3 were flatter than flat.) Fridge and microwave, new TV.Price - 5.0 (average hotel, great price, especially for location)All in all, I'd stay there again. It's cheap but not a roach motel. It's comfortable and has an excellent location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r205348814-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>205348814</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Great Find</t>
+  </si>
+  <si>
+    <t>Great place, but a bit of a hunt to locate with GPS.  Clean, great staff and comfortable bed and not expensive.  Great find for an Airport Hotel, really quite close.  If you need a place close to the airport, please try this great find.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>jyodi p, General Manager at Rodeway Inn Humble, responded to this reviewResponded June 21, 2014</t>
+  </si>
+  <si>
+    <t>Great place, but a bit of a hunt to locate with GPS.  Clean, great staff and comfortable bed and not expensive.  Great find for an Airport Hotel, really quite close.  If you need a place close to the airport, please try this great find.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r184739400-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -399,9 +579,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r158518367-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -423,6 +600,42 @@
     <t>Had a "suite" which was just a double turned into a suite.  For the money this way a good place to stay during the 2011 Senior Games.  The track and field events where being held at the new track there.The manager was great.  We found food still in the refrigerator and he had someone over right away to take care of it.  Other than that, we found the rooms to be clean and the bed as comfortable as you can get in a hotel.Did have some trouble with noisy children running up and down the balcony, but that too was taken care of almost immediately.The pool was small and I was the only one to use it during our stay.  The continental breakfast was fine.  Our diets require protein so we just scrambled some eggs in our microwave to go with fruit and cereal provided by the hotel.The hotel is in an excellent location for shops and gas stations.  There is a mall close by also.All in all I would stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r146455642-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>146455642</t>
+  </si>
+  <si>
+    <t>11/29/2012</t>
+  </si>
+  <si>
+    <t>Poor Choice</t>
+  </si>
+  <si>
+    <t>Our 2 rooms were disgusting.  Cigarette burns in all 4 bedspreads, stains on the sheets and pillow cases, no blankets.  Room next to us on one side had two large dogs that barked all night.  Room on the other side had "permanent guests" that smoked and drank all night each night.   There is also a midnight train somewhere in the area.  On the flip side, the bathrooms were very clean and the hotel is relatively new.  With better management, the hotel could show marked improvement.  Otherwise, in another year, it is likely to be frequented by the "by the hour" groups.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r145439496-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>145439496</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>A little too budget.  Not appropriate for business travel</t>
+  </si>
+  <si>
+    <t>I am not really sure why I selected this except it was slightly less expensive than the surrounding hotels in the neighborhood I like to stay in while in Humble.  Not a good choice.  The manager made the check in easy.  The room was just ok, it was not dirty but it was dimly lit and the furniture needs to be updated.  There is a microfridge.  The bathroom is ok and mostly clean.My complaints:  the breakfast was awful - plastic wrapped buns and stale cold cereal, thank goodness for the bananas.  The internet was not working most of the time.  The TV channel selections were pretty skinny - no movies just politics.  The room was dimly lit - very dimly lit.  The rooms are noisy.  It has been a long time since I stayed in a hotel where you could hear your neighbors.I really regret having to not recommend this hotel as the manager/owner is  a really nice guy.  Please try to stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am not really sure why I selected this except it was slightly less expensive than the surrounding hotels in the neighborhood I like to stay in while in Humble.  Not a good choice.  The manager made the check in easy.  The room was just ok, it was not dirty but it was dimly lit and the furniture needs to be updated.  There is a microfridge.  The bathroom is ok and mostly clean.My complaints:  the breakfast was awful - plastic wrapped buns and stale cold cereal, thank goodness for the bananas.  The internet was not working most of the time.  The TV channel selections were pretty skinny - no movies just politics.  The room was dimly lit - very dimly lit.  The rooms are noisy.  It has been a long time since I stayed in a hotel where you could hear your neighbors.I really regret having to not recommend this hotel as the manager/owner is  a really nice guy.  Please try to stay somewhere else.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r144502294-Rodeway_Inn_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -478,6 +691,27 @@
   </si>
   <si>
     <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d596569-r8066535-Rodeway_Inn_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>8066535</t>
+  </si>
+  <si>
+    <t>07/05/2007</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Best price was through the chain website. Wasn't thrilled to pay $70/night/rm; but it was comparable to hotels close by (and in worse shape). Best things; Close to airport and the shortcut shared by the staff was invaluable. Close to a nice mall, and restaurants but also a little off the main drag.Staff is friendly and competent.Room was very clean and cool and roomy (even with two queen sized beds, dresser, TV, fridge, tables and chairs. The dressing area is tiled with a big, well lighted area to dress and attend to personal grooming. A full sized iron and ironing board is included in the room. The bathroom is roomy and clean with a steady stream of hot water. There is a small pool. Worst things: Breakfast consists of fast food muffins, juice, milk and coffee. YUK!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>Best price was through the chain website. Wasn't thrilled to pay $70/night/rm; but it was comparable to hotels close by (and in worse shape). Best things; Close to airport and the shortcut shared by the staff was invaluable. Close to a nice mall, and restaurants but also a little off the main drag.Staff is friendly and competent.Room was very clean and cool and roomy (even with two queen sized beds, dresser, TV, fridge, tables and chairs. The dressing area is tiled with a big, well lighted area to dress and attend to personal grooming. A full sized iron and ironing board is included in the room. The bathroom is roomy and clean with a steady stream of hot water. There is a small pool. Worst things: Breakfast consists of fast food muffins, juice, milk and coffee. YUK!More</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1246,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1023,26 +1257,22 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1058,7 +1288,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1067,25 +1297,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1096,10 +1326,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1136,20 +1370,22 @@
         <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>3</v>
@@ -1158,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1180,7 +1416,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1189,45 +1425,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1270,21 +1500,29 @@
         <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1300,7 +1538,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1309,33 +1547,31 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1344,10 +1580,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1363,7 +1603,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1372,43 +1612,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
       <c r="O8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1424,7 +1670,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1433,35 +1679,37 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1469,7 +1717,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1485,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1494,25 +1742,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1526,7 +1774,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -1542,7 +1790,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1551,41 +1799,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1593,7 +1837,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -1609,7 +1853,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1618,49 +1862,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -1676,7 +1910,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1685,38 +1919,34 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
         <v>129</v>
       </c>
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-      <c r="L13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" t="s">
-        <v>63</v>
-      </c>
       <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1764,37 +1994,31 @@
         <v>139</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
         <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +2034,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1819,41 +2043,35 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1861,7 +2079,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -1877,7 +2095,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1886,49 +2104,784 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54164</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
